--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.81</v>
+        <v>3.65</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>3</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.57</v>
+        <v>3.46</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.97</v>
+        <v>2.38</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.65</v>
+        <v>3.81</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.46</v>
+        <v>2.57</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
         </is>
       </c>
     </row>
@@ -5422,6 +5422,374 @@
       <c r="V54" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-fremad-amager/WtKrZ9L1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>AB Copenhagen</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-ab-copenhagen/AXvIm9ze/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:07</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:01</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:07</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-roskilde/S8kDlkLl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Nykobing</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-nykobing/lIj9kV5r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Thisted FC</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:14</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>07/10/2023 09:14</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-frederiksberg-alliancen-2000/OzqMnTk1/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.46</v>
+        <v>2.04</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.82</v>
+        <v>2.38</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 08:52</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.89</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.12</v>
+        <v>3.81</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:02</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>3.31</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>2.57</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-aarhus-fremad/EqWbIQvg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.04</v>
+        <v>4.46</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.38</v>
+        <v>4.82</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 08:52</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.81</v>
+        <v>4.12</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:02</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.31</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-aarhus-fremad/EqWbIQvg/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.69</v>
+        <v>3.56</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.87</v>
+        <v>3.81</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 12:03</t>
+          <t>30/09/2023 13:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>3.63</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.18</v>
+        <v>3.76</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 13:53</t>
+          <t>30/09/2023 12:01</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.45</v>
+        <v>1.84</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 13:53</t>
+          <t>30/09/2023 13:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-skive/IZaweirL/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-esbjerg/zBAYeXSE/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.56</v>
+        <v>2.69</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.81</v>
+        <v>2.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 13:57</t>
+          <t>30/09/2023 12:03</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.63</v>
+        <v>3.13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.76</v>
+        <v>3.18</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:01</t>
+          <t>30/09/2023 13:53</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.84</v>
+        <v>2.45</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 13:57</t>
+          <t>30/09/2023 13:53</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-esbjerg/zBAYeXSE/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-skive/IZaweirL/</t>
         </is>
       </c>
     </row>
@@ -5790,6 +5790,190 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-frederiksberg-alliancen-2000/OzqMnTk1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>F. Amager</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Brabrand</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:53</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:03</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-brabrand/IcrQom57/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>7</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-hellerup/dlsUp7KD/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.56</v>
+        <v>2.69</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.81</v>
+        <v>2.87</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 13:57</t>
+          <t>30/09/2023 12:03</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.63</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.76</v>
+        <v>3.18</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 12:01</t>
+          <t>30/09/2023 13:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.84</v>
+        <v>2.45</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 13:57</t>
+          <t>30/09/2023 13:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-esbjerg/zBAYeXSE/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-skive/IZaweirL/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.69</v>
+        <v>3.56</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.87</v>
+        <v>3.81</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:03</t>
+          <t>30/09/2023 13:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.13</v>
+        <v>3.63</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.18</v>
+        <v>3.76</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 13:53</t>
+          <t>30/09/2023 12:01</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.45</v>
+        <v>1.84</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 13:53</t>
+          <t>30/09/2023 13:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-skive/IZaweirL/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-esbjerg/zBAYeXSE/</t>
         </is>
       </c>
     </row>
@@ -5974,6 +5974,98 @@
       <c r="V60" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-hellerup/dlsUp7KD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45212.79166666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>F. Amager</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>12/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>12/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>12/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-fremad-amager/vNaEoVKD/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.04</v>
+        <v>4.46</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.38</v>
+        <v>4.82</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 08:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.81</v>
+        <v>4.12</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:02</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.31</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-aarhus-fremad/EqWbIQvg/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.97</v>
+        <v>2.38</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.65</v>
+        <v>3.81</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.46</v>
+        <v>2.57</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.46</v>
+        <v>2.01</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.82</v>
+        <v>1.97</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18/08/2023 08:52</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.89</v>
+        <v>3.53</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.12</v>
+        <v>3.65</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18/08/2023 17:02</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>3.46</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-aarhus-fremad/EqWbIQvg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.13</v>
+        <v>2.41</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,32 +2268,32 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>25/08/2023 17:25</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>25/08/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>25/08/2023 18:44</t>
         </is>
       </c>
-      <c r="R20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>25/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>25/08/2023 18:44</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.41</v>
+        <v>3.13</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>25/08/2023 17:25</t>
+          <t>25/08/2023 18:44</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.81</v>
+        <v>2.06</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3.69</v>
+        <v>2.81</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>01/09/2023 03:12</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4.04</v>
+        <v>2.48</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:44</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.86</v>
+        <v>3.81</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>01/09/2023 03:12</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.18</v>
+        <v>3.64</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:42</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.71</v>
+        <v>2.21</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>01/09/2023 03:12</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>2.54</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:44</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-esbjerg/SSDkRLNN/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-middelfart/Ai3fQuwU/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.81</v>
+        <v>3.69</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.48</v>
+        <v>4.04</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:44</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.64</v>
+        <v>4.18</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:42</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.21</v>
+        <v>1.71</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.54</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 14:44</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-middelfart/Ai3fQuwU/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-esbjerg/SSDkRLNN/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:19</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,63 +3341,63 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:32</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:19</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.39</v>
+        <v>3.56</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 18:32</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.77</v>
+        <v>3.02</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,466 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-fremad-amager/vNaEoVKD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45213.54166666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:19</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>14/10/2023 10:46</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-middelfart/IDbIpkzK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45213.58333333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-esbjerg/CzbMq9kQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45213.58333333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Thisted FC</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-thisted-fc/ldkluTcs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>AB Copenhagen</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-skive/WKvgvmDm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Nykobing</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Brabrand</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:36</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:36</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-brabrand/ABwcw7Sg/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Middelfart</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
       <c r="J9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>11/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>1.72</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>12/08/2023 12:42</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>2.1</v>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 13:14</t>
+          <t>11/08/2023 08:16</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.94</v>
+        <v>3.56</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 02:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.13</v>
+        <v>3.86</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 13:39</t>
+          <t>12/08/2023 12:05</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.04</v>
+        <v>3.59</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 02:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 13:39</t>
+          <t>11/08/2023 08:16</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-middelfart/G8jOOS1P/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-roskilde/6w9X15fC/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Roskilde</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11/08/2023 02:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11/08/2023 08:16</t>
+          <t>12/08/2023 13:14</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.56</v>
+        <v>3.94</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>11/08/2023 02:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.86</v>
+        <v>4.13</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:05</t>
+          <t>12/08/2023 13:39</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.59</v>
+        <v>4.04</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>11/08/2023 02:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.2</v>
+        <v>2.84</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>11/08/2023 08:16</t>
+          <t>12/08/2023 13:39</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-roskilde/6w9X15fC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-middelfart/G8jOOS1P/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>F. Amager</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5.13</v>
+        <v>4.74</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.56</v>
+        <v>4.45</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.23</v>
+        <v>6.73</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>7.4</v>
+        <v>5.68</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-nykobing/EwkKt1NA/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-fremad-amager/hUmOuLxH/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>F. Amager</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.74</v>
+        <v>5.13</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.45</v>
+        <v>5.56</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.73</v>
+        <v>6.23</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.68</v>
+        <v>7.4</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-fremad-amager/hUmOuLxH/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-nykobing/EwkKt1NA/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.48</v>
+        <v>2.26</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 10:07</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.09</v>
+        <v>3.21</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.81</v>
+        <v>3.32</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 12:01</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.41</v>
+        <v>2.88</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.36</v>
+        <v>3.01</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 10:07</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-ab-copenhagen/AXvIm9ze/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-roskilde/S8kDlkLl/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.26</v>
+        <v>3.55</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 10:07</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.32</v>
+        <v>3.55</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07/10/2023 12:01</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.88</v>
+        <v>2.39</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.01</v>
+        <v>1.97</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>07/10/2023 10:07</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-roskilde/S8kDlkLl/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-nykobing/lIj9kV5r/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.58</v>
+        <v>1.55</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3.55</v>
+        <v>1.48</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.24</v>
+        <v>4.09</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.55</v>
+        <v>4.81</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.39</v>
+        <v>4.41</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.97</v>
+        <v>5.36</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-nykobing/lIj9kV5r/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-ab-copenhagen/AXvIm9ze/</t>
         </is>
       </c>
     </row>
@@ -6526,6 +6526,466 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-brabrand/ABwcw7Sg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Brabrand</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>AB Copenhagen</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:38</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:25</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Nykobing</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Thisted FC</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:47</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:47</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:47</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-hellerup/QwOeb84J/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Roskilde</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11/08/2023 02:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>11/08/2023 08:16</t>
+          <t>12/08/2023 13:14</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.56</v>
+        <v>3.94</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>11/08/2023 02:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.86</v>
+        <v>4.13</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:05</t>
+          <t>12/08/2023 13:39</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.59</v>
+        <v>4.04</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>11/08/2023 02:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>4.2</v>
+        <v>2.84</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>11/08/2023 08:16</t>
+          <t>12/08/2023 13:39</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-roskilde/6w9X15fC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-middelfart/G8jOOS1P/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Middelfart</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
       <c r="J10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>11/08/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
         <v>1.72</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>12/08/2023 12:42</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>2.1</v>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:14</t>
+          <t>11/08/2023 08:16</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.94</v>
+        <v>3.56</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 02:12</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.13</v>
+        <v>3.86</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:39</t>
+          <t>12/08/2023 12:05</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.04</v>
+        <v>3.59</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 02:12</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:39</t>
+          <t>11/08/2023 08:16</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-middelfart/G8jOOS1P/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-roskilde/6w9X15fC/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.41</v>
+        <v>3.13</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25/08/2023 17:25</t>
+          <t>25/08/2023 18:44</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.81</v>
+        <v>2.06</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.13</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,32 +2360,32 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>25/08/2023 17:25</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>25/08/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>25/08/2023 18:44</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>25/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>25/08/2023 18:44</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.5</v>
+        <v>3.31</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>3.31</v>
+        <v>1.21</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.55</v>
+        <v>1.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 06:38</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.44</v>
+        <v>6.19</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.49</v>
+        <v>7.26</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.95</v>
+        <v>7.96</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.99</v>
+        <v>11.24</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.21</v>
+        <v>1.95</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.18</v>
+        <v>2.1</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 06:38</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>6.19</v>
+        <v>3.43</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>7.26</v>
+        <v>3.66</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>7.96</v>
+        <v>3.21</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>11.24</v>
+        <v>3.12</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,40 +6860,40 @@
         </is>
       </c>
       <c r="N70" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
         <v>3.43</v>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S70" t="inlineStr">
         <is>
           <t>20/10/2023 01:13</t>
         </is>
       </c>
-      <c r="P70" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q70" t="inlineStr">
+      <c r="T70" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U70" t="inlineStr">
         <is>
           <t>21/10/2023 13:41</t>
         </is>
       </c>
-      <c r="R70" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:13</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:41</t>
-        </is>
-      </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,98 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-hellerup/QwOeb84J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>F. Amager</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>22/10/2023 04:53</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:04</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>22/10/2023 04:53</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-aarhus-fremad/4UMacSJP/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.13</v>
+        <v>2.41</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,32 +2268,32 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>25/08/2023 17:25</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>25/08/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>25/08/2023 18:44</t>
         </is>
       </c>
-      <c r="R20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>25/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>25/08/2023 18:44</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.41</v>
+        <v>3.13</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>25/08/2023 17:25</t>
+          <t>25/08/2023 18:44</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.81</v>
+        <v>2.06</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>F. Amager</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.74</v>
+        <v>5.13</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.45</v>
+        <v>5.56</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.73</v>
+        <v>6.23</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.68</v>
+        <v>7.4</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-fremad-amager/hUmOuLxH/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-nykobing/EwkKt1NA/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>F. Amager</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.13</v>
+        <v>4.74</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.56</v>
+        <v>4.45</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.23</v>
+        <v>6.73</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>7.4</v>
+        <v>5.68</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-nykobing/EwkKt1NA/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-fremad-amager/hUmOuLxH/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.26</v>
+        <v>1.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 10:07</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.21</v>
+        <v>4.09</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.32</v>
+        <v>4.81</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 12:01</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.88</v>
+        <v>4.41</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.01</v>
+        <v>5.36</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 10:07</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-roskilde/S8kDlkLl/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-ab-copenhagen/AXvIm9ze/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.58</v>
+        <v>2.18</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 10:07</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.55</v>
+        <v>3.32</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 12:01</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.39</v>
+        <v>2.88</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.97</v>
+        <v>3.01</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 10:07</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-nykobing/lIj9kV5r/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-roskilde/S8kDlkLl/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.55</v>
+        <v>2.58</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.48</v>
+        <v>3.55</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.09</v>
+        <v>3.24</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.81</v>
+        <v>3.55</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.41</v>
+        <v>2.39</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.36</v>
+        <v>1.97</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-ab-copenhagen/AXvIm9ze/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-nykobing/lIj9kV5r/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.31</v>
+        <v>1.95</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.49</v>
+        <v>3.66</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.95</v>
+        <v>3.21</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.99</v>
+        <v>3.12</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.21</v>
+        <v>3.31</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.18</v>
+        <v>3.55</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 06:38</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>6.19</v>
+        <v>3.44</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>7.26</v>
+        <v>3.49</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>7.96</v>
+        <v>1.95</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>11.24</v>
+        <v>1.99</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.95</v>
+        <v>1.21</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.1</v>
+        <v>1.18</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 06:38</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.43</v>
+        <v>6.19</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.66</v>
+        <v>7.26</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.21</v>
+        <v>7.96</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.12</v>
+        <v>11.24</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
         </is>
       </c>
     </row>
@@ -7078,6 +7078,558 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-aarhus-fremad/4UMacSJP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>F. Amager</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-fremad-amager/pO4ShnSt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45227.57291666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-skive/OE3Wi6sm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Brabrand</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>4</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>27/10/2023 10:36</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>27/10/2023 10:36</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-brabrand/Wv7vjpCa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-middelfart/Iy3ziQdg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Nykobing</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:34</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:34</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>28/10/2023 09:39</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-esbjerg/E3dqk4R5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Thisted FC</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>AB Copenhagen</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.69</v>
+        <v>3.56</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.87</v>
+        <v>3.81</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 12:03</t>
+          <t>30/09/2023 13:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>3.63</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.18</v>
+        <v>3.76</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 13:53</t>
+          <t>30/09/2023 12:01</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.45</v>
+        <v>1.84</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 13:53</t>
+          <t>30/09/2023 13:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-skive/IZaweirL/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-esbjerg/zBAYeXSE/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.56</v>
+        <v>2.69</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.81</v>
+        <v>2.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 13:57</t>
+          <t>30/09/2023 12:03</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.63</v>
+        <v>3.13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.76</v>
+        <v>3.18</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:01</t>
+          <t>30/09/2023 13:53</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.84</v>
+        <v>2.45</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 13:57</t>
+          <t>30/09/2023 13:53</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-esbjerg/zBAYeXSE/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-skive/IZaweirL/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3.31</v>
+        <v>3.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.49</v>
+        <v>3.43</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.21</v>
+        <v>3.31</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.18</v>
+        <v>3.55</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 06:38</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>6.19</v>
+        <v>3.44</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>7.26</v>
+        <v>3.49</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>7.96</v>
+        <v>1.95</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>11.24</v>
+        <v>1.99</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Roskilde</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>1.21</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.25</v>
+        <v>1.18</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 06:38</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.38</v>
+        <v>6.19</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.43</v>
+        <v>7.26</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.91</v>
+        <v>7.96</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.12</v>
+        <v>11.24</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/10/2023 10:36</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.92</v>
+        <v>3.76</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.27</v>
+        <v>3.73</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 12:03</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.56</v>
+        <v>3.69</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.09</v>
+        <v>3.94</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/10/2023 10:36</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-brabrand/Wv7vjpCa/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-middelfart/Iy3ziQdg/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>27/10/2023 10:36</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.76</v>
+        <v>3.92</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.73</v>
+        <v>4.27</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>28/10/2023 12:03</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.69</v>
+        <v>4.56</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.94</v>
+        <v>6.09</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>27/10/2023 10:36</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-middelfart/Iy3ziQdg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-brabrand/Wv7vjpCa/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,98 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45233.79166666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Thisted FC</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>02/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>02/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>02/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-thisted-fc/xpIKVFQp/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,34 +665,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>F. Amager</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Esbjerg</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.83</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>03/08/2023 07:12</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4.58</v>
+        <v>1.91</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>04/08/2023 18:50</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -700,36 +700,36 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>03/08/2023 07:12</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.05</v>
+        <v>3.73</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>04/08/2023 18:50</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>3.56</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>03/08/2023 07:12</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>3.56</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>04/08/2023 18:50</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-esbjerg/tEGoB9XP/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-hellerup/2NHsCkIJ/</t>
         </is>
       </c>
     </row>
@@ -757,34 +757,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>F. Amager</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>3.83</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>03/08/2023 07:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.91</v>
+        <v>4.58</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>04/08/2023 18:50</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -792,36 +792,36 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>03/08/2023 07:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.73</v>
+        <v>4.05</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>04/08/2023 18:50</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.56</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>03/08/2023 07:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.56</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>04/08/2023 18:50</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-hellerup/2NHsCkIJ/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-esbjerg/tEGoB9XP/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.3</v>
+        <v>1.61</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.41</v>
+        <v>3.65</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.75</v>
+        <v>4.27</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.38</v>
+        <v>3.72</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.99</v>
+        <v>4.64</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-esbjerg/CzbMq9kQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-thisted-fc/ldkluTcs/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.61</v>
+        <v>3.3</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.65</v>
+        <v>3.41</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.27</v>
+        <v>3.75</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.72</v>
+        <v>2.38</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.64</v>
+        <v>1.99</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-thisted-fc/ldkluTcs/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-esbjerg/CzbMq9kQ/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
         <v>1.95</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>20/10/2023 01:13</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M67" t="inlineStr">
+      <c r="T67" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U67" t="inlineStr">
         <is>
           <t>21/10/2023 13:41</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:13</t>
-        </is>
-      </c>
-      <c r="P67" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:41</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:13</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:41</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Roskilde</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>1.21</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.25</v>
+        <v>1.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 06:38</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.38</v>
+        <v>6.19</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.43</v>
+        <v>7.26</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.91</v>
+        <v>7.96</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.12</v>
+        <v>11.24</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3.31</v>
+        <v>1.95</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.49</v>
+        <v>3.66</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.95</v>
+        <v>3.21</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.99</v>
+        <v>3.12</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.21</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.18</v>
+        <v>3.25</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 06:38</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>6.19</v>
+        <v>3.38</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>7.26</v>
+        <v>3.43</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>7.96</v>
+        <v>1.91</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>11.24</v>
+        <v>2.12</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,374 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-thisted-fc/xpIKVFQp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Brabrand</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Nykobing</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-nykobing/vkd3fa3o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:39</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:39</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:39</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-hellerup/hh07gJIi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-frederiksberg-alliancen-2000/nFaBhwYc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45234.79166666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>AB Copenhagen</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-roskilde/0KfimrdI/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,34 +665,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>F. Amager</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>3.83</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>03/08/2023 07:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.91</v>
+        <v>4.58</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>04/08/2023 18:50</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -700,36 +700,36 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>03/08/2023 07:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.73</v>
+        <v>4.05</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>04/08/2023 18:50</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.56</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>03/08/2023 07:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.56</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>04/08/2023 17:43</t>
+          <t>04/08/2023 18:50</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-hellerup/2NHsCkIJ/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-esbjerg/tEGoB9XP/</t>
         </is>
       </c>
     </row>
@@ -757,34 +757,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>F. Amager</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Esbjerg</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.83</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>03/08/2023 07:12</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4.58</v>
+        <v>1.91</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>04/08/2023 18:50</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -792,36 +792,36 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>03/08/2023 07:12</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.05</v>
+        <v>3.73</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>04/08/2023 18:50</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>3.56</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>03/08/2023 07:12</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>3.56</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>04/08/2023 18:50</t>
+          <t>04/08/2023 17:43</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-esbjerg/tEGoB9XP/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-hellerup/2NHsCkIJ/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.46</v>
+        <v>2.04</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.82</v>
+        <v>2.38</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 08:52</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.89</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.12</v>
+        <v>3.81</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:02</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>3.31</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>2.57</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-aarhus-fremad/EqWbIQvg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.81</v>
+        <v>3.65</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>3</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.57</v>
+        <v>3.46</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.01</v>
+        <v>4.46</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.97</v>
+        <v>4.82</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 08:52</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.53</v>
+        <v>3.89</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.65</v>
+        <v>4.12</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:02</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.46</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-aarhus-fremad/EqWbIQvg/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>F. Amager</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 13:25</t>
+          <t>26/08/2023 13:47</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.61</v>
+        <v>3.58</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 13:25</t>
+          <t>26/08/2023 13:47</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.91</v>
+        <v>3.75</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.39</v>
+        <v>2.96</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 13:25</t>
+          <t>26/08/2023 13:47</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-fremad-amager/M9exWq9h/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-skive/SndYWPgn/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>F. Amager</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:47</t>
+          <t>26/08/2023 13:25</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:47</t>
+          <t>26/08/2023 13:25</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.75</v>
+        <v>2.91</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.96</v>
+        <v>3.39</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:47</t>
+          <t>26/08/2023 13:25</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-skive/SndYWPgn/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-fremad-amager/M9exWq9h/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:19</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.39</v>
+        <v>3.56</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 18:32</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.77</v>
+        <v>3.02</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:19</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,63 +3433,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:32</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.56</v>
+        <v>2.69</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.81</v>
+        <v>2.87</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 13:57</t>
+          <t>30/09/2023 12:03</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.63</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.76</v>
+        <v>3.18</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 12:01</t>
+          <t>30/09/2023 13:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.84</v>
+        <v>2.45</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 13:57</t>
+          <t>30/09/2023 13:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-esbjerg/zBAYeXSE/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-skive/IZaweirL/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.69</v>
+        <v>3.56</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.87</v>
+        <v>3.81</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 12:03</t>
+          <t>30/09/2023 13:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.13</v>
+        <v>3.63</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.18</v>
+        <v>3.76</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 13:53</t>
+          <t>30/09/2023 12:01</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.45</v>
+        <v>1.84</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 13:53</t>
+          <t>30/09/2023 13:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-skive/IZaweirL/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-esbjerg/zBAYeXSE/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>27/10/2023 10:36</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.76</v>
+        <v>3.92</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.73</v>
+        <v>4.27</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>28/10/2023 12:03</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.69</v>
+        <v>4.56</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.94</v>
+        <v>6.09</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>27/10/2023 10:36</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-middelfart/Iy3ziQdg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-brabrand/Wv7vjpCa/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>27/10/2023 10:36</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.92</v>
+        <v>3.76</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.27</v>
+        <v>3.73</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 12:03</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.56</v>
+        <v>3.69</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.09</v>
+        <v>3.94</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>27/10/2023 10:36</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-brabrand/Wv7vjpCa/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-middelfart/Iy3ziQdg/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.87</v>
+        <v>2.52</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.51</v>
+        <v>2.32</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:34</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.01</v>
+        <v>3.33</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.37</v>
+        <v>3.54</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:34</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 09:39</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-esbjerg/E3dqk4R5/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>2.52</v>
+        <v>3.87</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.32</v>
+        <v>4.51</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 14:34</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.33</v>
+        <v>4.01</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.54</v>
+        <v>4.37</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 14:34</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 09:39</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-esbjerg/E3dqk4R5/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>3.27</v>
+        <v>1.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.29</v>
+        <v>1.58</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.38</v>
+        <v>4.13</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.54</v>
+        <v>4.06</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.98</v>
+        <v>5.07</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.06</v>
+        <v>5.25</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-nykobing/vkd3fa3o/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-frederiksberg-alliancen-2000/nFaBhwYc/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.5</v>
+        <v>3.27</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.58</v>
+        <v>3.29</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.13</v>
+        <v>3.38</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.06</v>
+        <v>3.54</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>5.07</v>
+        <v>1.98</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.25</v>
+        <v>2.06</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-frederiksberg-alliancen-2000/nFaBhwYc/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-nykobing/vkd3fa3o/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,98 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-roskilde/0KfimrdI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>F. Amager</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-esbjerg/Q5bFicm4/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:16</t>
+          <t>04/08/2023 02:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.61</v>
+        <v>2.47</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 13:01</t>
+          <t>05/08/2023 12:25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.16</v>
+        <v>3.36</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:16</t>
+          <t>04/08/2023 02:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.53</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 13:01</t>
+          <t>05/08/2023 12:04</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.83</v>
+        <v>3.26</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:16</t>
+          <t>04/08/2023 02:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.34</v>
+        <v>2.69</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 13:01</t>
+          <t>05/08/2023 12:25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-frederiksberg-alliancen-2000/fLdM47Ag/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-thisted-fc/bg3D6Tus/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>04/08/2023 02:12</t>
+          <t>04/08/2023 22:16</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.47</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 12:25</t>
+          <t>05/08/2023 13:01</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.36</v>
+        <v>4.16</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>04/08/2023 02:12</t>
+          <t>04/08/2023 22:16</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>4.53</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 12:04</t>
+          <t>05/08/2023 13:01</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.26</v>
+        <v>4.83</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>04/08/2023 02:12</t>
+          <t>04/08/2023 22:16</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.69</v>
+        <v>4.34</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 12:25</t>
+          <t>05/08/2023 13:01</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-thisted-fc/bg3D6Tus/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-frederiksberg-alliancen-2000/fLdM47Ag/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.5</v>
+        <v>2.31</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.35</v>
+        <v>3.49</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.56</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:49</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.91</v>
+        <v>3.17</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.43</v>
+        <v>3.02</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:49</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-frederiksberg-alliancen-2000/rHoerEbF/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-ab-copenhagen/M7pasYDL/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.31</v>
+        <v>1.5</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>4.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>4.56</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:49</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.17</v>
+        <v>4.91</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.02</v>
+        <v>5.43</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:49</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-ab-copenhagen/M7pasYDL/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-frederiksberg-alliancen-2000/rHoerEbF/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 12:36</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.63</v>
+        <v>3.95</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.04</v>
+        <v>3.75</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.83</v>
+        <v>4.5</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.86</v>
+        <v>4.68</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 12:36</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-skive/WKvgvmDm/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-brabrand/ABwcw7Sg/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>14/10/2023 12:36</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.95</v>
+        <v>3.63</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.75</v>
+        <v>4.04</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.5</v>
+        <v>3.83</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.68</v>
+        <v>4.86</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>14/10/2023 12:36</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-brabrand/ABwcw7Sg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-skive/WKvgvmDm/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.31</v>
+        <v>3.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.49</v>
+        <v>3.43</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.21</v>
+        <v>1.95</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.18</v>
+        <v>2.1</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 06:38</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>6.19</v>
+        <v>3.43</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>7.26</v>
+        <v>3.66</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>7.96</v>
+        <v>3.21</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>11.24</v>
+        <v>3.12</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>2</v>
       </c>
       <c r="J69" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
         <v>1.95</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>20/10/2023 01:13</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M69" t="inlineStr">
+      <c r="T69" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U69" t="inlineStr">
         <is>
           <t>21/10/2023 13:41</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:13</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:41</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:13</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:41</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Roskilde</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>1.21</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.25</v>
+        <v>1.18</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 06:38</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.38</v>
+        <v>6.19</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.43</v>
+        <v>7.26</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.91</v>
+        <v>7.96</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.12</v>
+        <v>11.24</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/10/2023 10:36</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.92</v>
+        <v>3.76</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.27</v>
+        <v>3.73</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/10/2023 12:03</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.56</v>
+        <v>3.69</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.09</v>
+        <v>3.94</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/10/2023 10:36</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-brabrand/Wv7vjpCa/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-middelfart/Iy3ziQdg/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>27/10/2023 10:36</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.76</v>
+        <v>3.92</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.73</v>
+        <v>4.27</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>28/10/2023 12:03</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.69</v>
+        <v>4.56</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.94</v>
+        <v>6.09</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>27/10/2023 10:36</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-middelfart/Iy3ziQdg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-brabrand/Wv7vjpCa/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.52</v>
+        <v>3.87</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.32</v>
+        <v>4.51</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 14:34</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.33</v>
+        <v>4.01</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.54</v>
+        <v>4.37</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 14:34</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 09:39</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-esbjerg/E3dqk4R5/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.87</v>
+        <v>2.52</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.51</v>
+        <v>2.32</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:34</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.01</v>
+        <v>3.33</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.37</v>
+        <v>3.54</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:34</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 09:39</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-esbjerg/E3dqk4R5/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,190 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-esbjerg/Q5bFicm4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>AB Copenhagen</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>09/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>10/11/2023 14:32</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>09/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:01</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>09/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>10/11/2023 14:32</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-ab-copenhagen/rsgKjH2A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>F. Amager</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>09/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:40</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>09/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>09/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-fremad-amager/MXiOkyIG/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.31</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.49</v>
+        <v>4.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.25</v>
+        <v>4.56</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:49</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.17</v>
+        <v>4.91</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.02</v>
+        <v>5.43</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:49</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-ab-copenhagen/M7pasYDL/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-frederiksberg-alliancen-2000/rHoerEbF/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.5</v>
+        <v>2.31</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.35</v>
+        <v>3.49</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.56</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:49</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.91</v>
+        <v>3.17</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.43</v>
+        <v>3.02</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:49</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-frederiksberg-alliancen-2000/rHoerEbF/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-ab-copenhagen/M7pasYDL/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.61</v>
+        <v>3.3</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.65</v>
+        <v>3.41</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.27</v>
+        <v>3.75</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.72</v>
+        <v>2.38</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.64</v>
+        <v>1.99</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-thisted-fc/ldkluTcs/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-esbjerg/CzbMq9kQ/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.3</v>
+        <v>1.61</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.41</v>
+        <v>3.65</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.75</v>
+        <v>4.27</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.38</v>
+        <v>3.72</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.99</v>
+        <v>4.64</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-esbjerg/CzbMq9kQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-thisted-fc/ldkluTcs/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>14/10/2023 12:36</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.95</v>
+        <v>3.63</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.75</v>
+        <v>4.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.5</v>
+        <v>3.83</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.68</v>
+        <v>4.86</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>14/10/2023 12:36</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-brabrand/ABwcw7Sg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-skive/WKvgvmDm/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 12:36</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.63</v>
+        <v>3.95</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.04</v>
+        <v>3.75</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.83</v>
+        <v>4.5</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.86</v>
+        <v>4.68</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 12:36</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-skive/WKvgvmDm/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-brabrand/ABwcw7Sg/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.87</v>
+        <v>2.52</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.51</v>
+        <v>2.32</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:34</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.01</v>
+        <v>3.33</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.37</v>
+        <v>3.54</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:34</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 09:39</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-esbjerg/E3dqk4R5/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>2.52</v>
+        <v>3.87</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.32</v>
+        <v>4.51</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 14:34</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.33</v>
+        <v>4.01</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.54</v>
+        <v>4.37</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 14:34</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 09:39</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-esbjerg/E3dqk4R5/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>2</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>FA 2000</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
       <c r="J80" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:39</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.13</v>
+        <v>4.96</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.06</v>
+        <v>5.5</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:39</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>5.07</v>
+        <v>5.8</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.25</v>
+        <v>7.43</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:39</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-frederiksberg-alliancen-2000/nFaBhwYc/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-hellerup/hh07gJIi/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.35</v>
+        <v>3.27</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.33</v>
+        <v>3.29</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>04/11/2023 13:39</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.96</v>
+        <v>3.38</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>5.5</v>
+        <v>3.54</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>04/11/2023 13:39</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>5.8</v>
+        <v>1.98</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>7.43</v>
+        <v>2.06</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>04/11/2023 13:39</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-hellerup/hh07gJIi/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-nykobing/vkd3fa3o/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>3.27</v>
+        <v>1.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.29</v>
+        <v>1.58</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.38</v>
+        <v>4.13</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.54</v>
+        <v>4.06</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.98</v>
+        <v>5.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.06</v>
+        <v>5.25</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-nykobing/vkd3fa3o/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-frederiksberg-alliancen-2000/nFaBhwYc/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,282 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-fremad-amager/MXiOkyIG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Brabrand</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:53</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:02</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:53</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-brabrand/GfiSleXM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45241.57291666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:35</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:35</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-aarhus-fremad/EuAVmFnT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Nykobing</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Thisted FC</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-thisted-fc/KMnbqZfp/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.04</v>
+        <v>4.46</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.38</v>
+        <v>4.82</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>18/08/2023 08:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.81</v>
+        <v>4.12</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:02</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.31</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:49</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:37</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-aarhus-fremad/EqWbIQvg/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.97</v>
+        <v>2.38</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.65</v>
+        <v>3.81</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:49</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.46</v>
+        <v>2.57</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:50</t>
+          <t>18/08/2023 17:37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-roskilde/KtZ6G495/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.46</v>
+        <v>2.01</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.82</v>
+        <v>1.97</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18/08/2023 08:52</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.89</v>
+        <v>3.53</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.12</v>
+        <v>3.65</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18/08/2023 17:02</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>3.46</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>18/08/2023 18:50</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-aarhus-fremad/EqWbIQvg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-hellerup/86V2Hpfa/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>F. Amager</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 13:47</t>
+          <t>26/08/2023 13:25</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 13:47</t>
+          <t>26/08/2023 13:25</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.75</v>
+        <v>2.91</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.96</v>
+        <v>3.39</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 13:47</t>
+          <t>26/08/2023 13:25</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-skive/SndYWPgn/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-fremad-amager/M9exWq9h/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>F. Amager</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:25</t>
+          <t>26/08/2023 13:47</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.61</v>
+        <v>3.58</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:25</t>
+          <t>26/08/2023 13:47</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.91</v>
+        <v>3.75</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.39</v>
+        <v>2.96</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:25</t>
+          <t>26/08/2023 13:47</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-fremad-amager/M9exWq9h/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-skive/SndYWPgn/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.58</v>
+        <v>2.37</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>01/09/2023 23:41</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.61</v>
+        <v>3.34</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.43</v>
+        <v>3.56</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>02/09/2023 12:03</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.56</v>
+        <v>2.45</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>01/09/2023 23:41</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-frederiksberg-alliancen-2000/K2AsTsgB/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-hellerup/EP9oS18H/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.37</v>
+        <v>2.58</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 23:41</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.56</v>
+        <v>3.43</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 12:03</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.68</v>
+        <v>2.55</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 23:41</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-hellerup/EP9oS18H/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-frederiksberg-alliancen-2000/K2AsTsgB/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,63 +3249,63 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>08/09/2023 18:32</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,63 +3433,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 18:32</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:58</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-ab-copenhagen/v7s8q3wh/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>F. Amager</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5.13</v>
+        <v>4.74</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.56</v>
+        <v>4.45</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.23</v>
+        <v>6.73</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>7.4</v>
+        <v>5.68</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-nykobing/EwkKt1NA/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-fremad-amager/hUmOuLxH/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>F. Amager</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.74</v>
+        <v>5.13</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.45</v>
+        <v>5.56</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.73</v>
+        <v>6.23</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.68</v>
+        <v>7.4</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-fremad-amager/hUmOuLxH/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-nykobing/EwkKt1NA/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.5</v>
+        <v>2.31</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.35</v>
+        <v>3.49</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.56</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:49</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.91</v>
+        <v>3.17</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.43</v>
+        <v>3.02</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:49</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-frederiksberg-alliancen-2000/rHoerEbF/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-ab-copenhagen/M7pasYDL/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.31</v>
+        <v>1.5</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>4.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>4.56</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:49</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.17</v>
+        <v>4.91</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.02</v>
+        <v>5.43</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:49</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-ab-copenhagen/M7pasYDL/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-frederiksberg-alliancen-2000/rHoerEbF/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.48</v>
+        <v>2.26</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 10:07</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.09</v>
+        <v>3.21</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.81</v>
+        <v>3.32</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 12:01</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.41</v>
+        <v>2.88</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.36</v>
+        <v>3.01</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 10:07</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-ab-copenhagen/AXvIm9ze/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-roskilde/S8kDlkLl/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.26</v>
+        <v>3.55</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 10:07</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.32</v>
+        <v>3.55</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07/10/2023 12:01</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.88</v>
+        <v>2.39</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.01</v>
+        <v>1.97</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>07/10/2023 10:07</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-roskilde/S8kDlkLl/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-nykobing/lIj9kV5r/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.58</v>
+        <v>1.55</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3.55</v>
+        <v>1.48</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.24</v>
+        <v>4.09</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.55</v>
+        <v>4.81</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.39</v>
+        <v>4.41</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.97</v>
+        <v>5.36</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-nykobing/lIj9kV5r/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-ab-copenhagen/AXvIm9ze/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.91</v>
+        <v>3.21</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.12</v>
+        <v>3.12</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="N68" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
         <v>3.43</v>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S68" t="inlineStr">
         <is>
           <t>20/10/2023 01:13</t>
         </is>
       </c>
-      <c r="P68" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q68" t="inlineStr">
+      <c r="T68" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U68" t="inlineStr">
         <is>
           <t>21/10/2023 13:41</t>
         </is>
       </c>
-      <c r="R68" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:13</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:41</t>
-        </is>
-      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>3.31</v>
+        <v>1.21</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.55</v>
+        <v>1.18</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 06:38</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.44</v>
+        <v>6.19</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.49</v>
+        <v>7.26</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.95</v>
+        <v>7.96</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.99</v>
+        <v>11.24</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.21</v>
+        <v>3.31</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.18</v>
+        <v>3.55</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 06:38</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>6.19</v>
+        <v>3.44</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>7.26</v>
+        <v>3.49</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>7.96</v>
+        <v>1.95</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>11.24</v>
+        <v>1.99</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.52</v>
+        <v>3.87</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.32</v>
+        <v>4.51</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 14:34</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.33</v>
+        <v>4.01</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.54</v>
+        <v>4.37</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 14:34</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.79</v>
+        <v>1.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 14:59</t>
+          <t>28/10/2023 09:39</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-esbjerg/E3dqk4R5/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.87</v>
+        <v>2.52</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.51</v>
+        <v>2.32</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:34</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.01</v>
+        <v>3.33</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.37</v>
+        <v>3.54</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/10/2023 14:34</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.61</v>
+        <v>2.79</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/10/2023 09:39</t>
+          <t>28/10/2023 14:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-esbjerg/E3dqk4R5/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-ab-copenhagen/hfemlOtC/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,98 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-thisted-fc/KMnbqZfp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-middelfart/bDo2rgAj/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,40 +6584,40 @@
         </is>
       </c>
       <c r="N67" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
         <v>3.43</v>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>20/10/2023 01:13</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q67" t="inlineStr">
+      <c r="T67" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U67" t="inlineStr">
         <is>
           <t>21/10/2023 13:41</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:13</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:41</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Roskilde</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>1.21</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.25</v>
+        <v>1.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 06:38</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.38</v>
+        <v>6.19</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.43</v>
+        <v>7.26</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.91</v>
+        <v>7.96</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.12</v>
+        <v>11.24</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 13:41</t>
+          <t>21/10/2023 13:25</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.21</v>
+        <v>3.31</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.18</v>
+        <v>3.55</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 06:38</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>6.19</v>
+        <v>3.44</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>7.26</v>
+        <v>3.49</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>7.96</v>
+        <v>1.95</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>11.24</v>
+        <v>1.99</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 13:25</t>
+          <t>21/10/2023 13:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-frederiksberg-alliancen-2000/00W9z5CC/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>3.31</v>
+        <v>1.95</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.49</v>
+        <v>3.66</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>1.95</v>
+        <v>3.21</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.99</v>
+        <v>3.12</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,98 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-middelfart/bDo2rgAj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45247.75</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>F. Amager</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Nykobing</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>16/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>16/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>16/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>17/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-nykobing/nTvp7xmi/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_2nd-division_2023-2024.xlsx
+++ b/2023/denmark_2nd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04/08/2023 02:12</t>
+          <t>04/08/2023 22:16</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.47</v>
+        <v>1.61</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 12:25</t>
+          <t>05/08/2023 13:01</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.36</v>
+        <v>4.16</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>04/08/2023 02:12</t>
+          <t>04/08/2023 22:16</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>4.53</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 12:04</t>
+          <t>05/08/2023 13:01</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.26</v>
+        <v>4.83</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04/08/2023 02:12</t>
+          <t>04/08/2023 22:16</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.69</v>
+        <v>4.34</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 12:25</t>
+          <t>05/08/2023 13:01</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-thisted-fc/bg3D6Tus/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-frederiksberg-alliancen-2000/fLdM47Ag/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>04/08/2023 22:16</t>
+          <t>04/08/2023 02:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.61</v>
+        <v>2.47</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 13:01</t>
+          <t>05/08/2023 12:25</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.16</v>
+        <v>3.36</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>04/08/2023 22:16</t>
+          <t>04/08/2023 02:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.53</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 13:01</t>
+          <t>05/08/2023 12:04</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.83</v>
+        <v>3.26</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>04/08/2023 22:16</t>
+          <t>04/08/2023 02:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.34</v>
+        <v>2.69</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 13:01</t>
+          <t>05/08/2023 12:25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/roskilde-frederiksberg-alliancen-2000/fLdM47Ag/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-thisted-fc/bg3D6Tus/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.41</v>
+        <v>3.13</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25/08/2023 17:25</t>
+          <t>25/08/2023 18:44</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.81</v>
+        <v>2.06</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.13</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,32 +2360,32 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>25/08/2023 17:25</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>25/08/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>25/08/2023 18:44</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>25/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>25/08/2023 18:44</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-ab-copenhagen/lMQNCM8U/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-nykobing/EqhUX5vt/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.37</v>
+        <v>2.58</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 23:41</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.56</v>
+        <v>3.43</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>02/09/2023 12:03</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>01/09/2023 02:12</t>
+          <t>02/09/2023 10:43</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.68</v>
+        <v>2.55</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 23:41</t>
+          <t>02/09/2023 13:48</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-hellerup/EP9oS18H/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-frederiksberg-alliancen-2000/K2AsTsgB/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.58</v>
+        <v>2.37</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>01/09/2023 23:41</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.61</v>
+        <v>3.34</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.43</v>
+        <v>3.56</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>02/09/2023 12:03</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.56</v>
+        <v>2.45</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>02/09/2023 10:43</t>
+          <t>01/09/2023 02:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 13:48</t>
+          <t>01/09/2023 23:41</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-frederiksberg-alliancen-2000/K2AsTsgB/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-hellerup/EP9oS18H/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Thisted FC</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Hellerup</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:19</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.39</v>
+        <v>3.56</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 18:32</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>07/09/2023 07:12</t>
+          <t>08/09/2023 08:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.77</v>
+        <v>3.02</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>08/09/2023 18:56</t>
+          <t>08/09/2023 17:30</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>Thisted FC</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hellerup</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:19</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.56</v>
+        <v>3.39</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:32</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>08/09/2023 08:12</t>
+          <t>07/09/2023 07:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.02</v>
+        <v>2.77</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>08/09/2023 17:30</t>
+          <t>08/09/2023 18:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/frederiksberg-alliancen-2000-hellerup/0Gr4pqOo/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-skive/MVWCrNhb/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>F. Amager</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.74</v>
+        <v>5.13</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.45</v>
+        <v>5.56</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.73</v>
+        <v>6.23</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>09/09/2023 02:12</t>
+          <t>10/09/2023 09:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.68</v>
+        <v>7.4</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>10/09/2023 13:31</t>
+          <t>10/09/2023 13:24</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-fremad-amager/hUmOuLxH/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-nykobing/EwkKt1NA/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>F. Amager</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.13</v>
+        <v>4.74</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.56</v>
+        <v>4.45</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.23</v>
+        <v>6.73</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>10/09/2023 09:12</t>
+          <t>09/09/2023 02:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>7.4</v>
+        <v>5.68</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>10/09/2023 13:24</t>
+          <t>10/09/2023 13:31</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/esbjerg-nykobing/EwkKt1NA/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-fremad-amager/hUmOuLxH/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>FA 2000</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.31</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.49</v>
+        <v>4.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.25</v>
+        <v>4.56</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:49</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.17</v>
+        <v>4.91</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.02</v>
+        <v>5.43</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 13:49</t>
+          <t>23/09/2023 13:45</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-ab-copenhagen/M7pasYDL/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-frederiksberg-alliancen-2000/rHoerEbF/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FA 2000</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.5</v>
+        <v>2.31</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.35</v>
+        <v>3.49</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.56</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:49</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.91</v>
+        <v>3.17</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.43</v>
+        <v>3.02</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 13:45</t>
+          <t>23/09/2023 13:49</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-frederiksberg-alliancen-2000/rHoerEbF/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-ab-copenhagen/M7pasYDL/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.26</v>
+        <v>1.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/10/2023 10:07</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.21</v>
+        <v>4.09</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.32</v>
+        <v>4.81</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07/10/2023 12:01</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.88</v>
+        <v>4.41</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>06/10/2023 01:12</t>
+          <t>06/10/2023 01:13</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.01</v>
+        <v>5.36</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>07/10/2023 10:07</t>
+          <t>07/10/2023 13:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-roskilde/S8kDlkLl/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-ab-copenhagen/AXvIm9ze/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.58</v>
+        <v>2.18</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 10:07</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.55</v>
+        <v>3.32</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 12:01</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.39</v>
+        <v>2.88</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>06/10/2023 01:13</t>
+          <t>06/10/2023 01:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.97</v>
+        <v>3.01</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>07/10/2023 13:40</t>
+          <t>07/10/2023 10:07</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-nykobing/lIj9kV5r/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-roskilde/S8kDlkLl/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.55</v>
+        <v>2.58</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.48</v>
+        <v>3.55</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.09</v>
+        <v>3.24</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.81</v>
+        <v>3.55</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.41</v>
+        <v>2.39</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.36</v>
+        <v>1.97</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>07/10/2023 13:58</t>
+          <t>07/10/2023 13:40</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/aarhus-fremad-ab-copenhagen/AXvIm9ze/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-nykobing/lIj9kV5r/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 12:36</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.63</v>
+        <v>3.95</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.04</v>
+        <v>3.75</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.83</v>
+        <v>4.5</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.86</v>
+        <v>4.68</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 12:36</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-skive/WKvgvmDm/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-brabrand/ABwcw7Sg/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>14/10/2023 12:36</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.95</v>
+        <v>3.63</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.75</v>
+        <v>4.04</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.5</v>
+        <v>3.83</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.68</v>
+        <v>4.86</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>14/10/2023 12:36</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/nykobing-brabrand/ABwcw7Sg/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-skive/WKvgvmDm/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Brabrand</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Roskilde</t>
+          <t>AB Copenhagen</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.5</v>
+        <v>3.31</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Brabrand</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AB Copenhagen</t>
+          <t>Nykobing</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3.31</v>
+        <v>1.95</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.49</v>
+        <v>3.66</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.95</v>
+        <v>3.21</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.99</v>
+        <v>3.12</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-ab-copenhagen/Iys5yoc6/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Nykobing</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,40 +6860,40 @@
         </is>
       </c>
       <c r="N70" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
         <v>3.43</v>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S70" t="inlineStr">
         <is>
           <t>20/10/2023 01:13</t>
         </is>
       </c>
-      <c r="P70" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q70" t="inlineStr">
+      <c r="T70" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U70" t="inlineStr">
         <is>
           <t>21/10/2023 13:41</t>
         </is>
       </c>
-      <c r="R70" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:13</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:41</t>
-        </is>
-      </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-nykobing/CzzEZORI/</t>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/skive-roskilde/vor1xRs0/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,466 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/2nd-division/fremad-amager-nykobing/nTvp7xmi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>AB Copenhagen</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>FA 2000</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/ab-copenhagen-frederiksberg-alliancen-2000/faV42E1M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Hellerup</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/hellerup-esbjerg/QJwl6d2c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45248.58333333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Middelfart</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/middelfart-skive/MoXd4zX9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45248.58333333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Brabrand</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/brabrand-aarhus-fremad/8rTh5GH3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2nd-division</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45248.625</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Thisted FC</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Roskilde</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:11</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:11</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:11</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/2nd-division/thisted-fc-roskilde/G8W03fnG/</t>
         </is>
       </c>
     </row>
